--- a/data/trans_bre/IP16A03-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP16A03-Edad-trans_bre.xlsx
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-2,4</t>
+          <t>-2,46</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,61</t>
+          <t>5,68</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-1,52</t>
+          <t>-5,12</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-2,13</t>
+          <t>0,78</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-37,19%</t>
+          <t>-37,17%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>98,14%</t>
+          <t>367,72%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-42,39%</t>
+          <t>-76,41%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-49,35%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -768,27 +768,27 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-9,8; 4,24</t>
+          <t>-10,94; 6,32</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,34; 7,51</t>
+          <t>0,0; 14,1</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-7,74; 4,78</t>
+          <t>-14,04; 0,26</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-7,57; 2,23</t>
+          <t>0,0; 3,98</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 213,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -803,14 +803,14 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 281,25</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-2,46</t>
+          <t>-2,4</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>5,68</t>
+          <t>1,61</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-5,12</t>
+          <t>-1,52</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,78</t>
+          <t>-2,13</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-37,17%</t>
+          <t>-37,19%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>367,72%</t>
+          <t>98,14%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-76,41%</t>
+          <t>-42,39%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-49,35%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-10,94; 6,32</t>
+          <t>-9,8; 4,24</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,1</t>
+          <t>-3,34; 7,51</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-14,04; 0,26</t>
+          <t>-7,74; 4,78</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,98</t>
+          <t>-7,57; 2,23</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>-100,0; 213,2</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
+      <c r="I9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 281,25</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP16A03-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP16A03-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,27</t>
+          <t>7,18</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-4,01</t>
+          <t>-9,91</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-2,81</t>
+          <t>-4,68</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-2,73</t>
+          <t>-3,14</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-3,06%</t>
+          <t>293,18%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-55,81%</t>
+          <t>-83,19%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-58,59%</t>
+          <t>-58,15%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-47,7%</t>
+          <t>-38,96%</t>
         </is>
       </c>
     </row>
@@ -668,32 +668,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-9,41; 9,67</t>
+          <t>-1,41; 16,93</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-11,21; 2,51</t>
+          <t>-22,06; -1,22</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-10,45; 1,68</t>
+          <t>-17,06; 3,6</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-10,53; 5,96</t>
+          <t>-15,93; 11,72</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-70,69; 265,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-93,12; 200,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-2,46</t>
+          <t>-7,42</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>5,68</t>
+          <t>4,31</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-5,12</t>
+          <t>-3,46</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,78</t>
+          <t>0,16</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-37,17%</t>
+          <t>-61,12%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>367,72%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-76,41%</t>
+          <t>-67,42%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>20,13%</t>
         </is>
       </c>
     </row>
@@ -768,27 +768,27 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-10,94; 6,32</t>
+          <t>-16,91; 1,14</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,1</t>
+          <t>1,2; 10,83</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-14,04; 0,26</t>
+          <t>-10,43; 1,73</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,98</t>
+          <t>-1,65; 3,24</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-92,4; 59,49</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-2,4</t>
+          <t>-0,12</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,61</t>
+          <t>6,35</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,52</t>
+          <t>-1,77</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-2,13</t>
+          <t>0,35</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-37,19%</t>
+          <t>-4,11%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>98,14%</t>
+          <t>199,83%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-42,39%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-49,35%</t>
+          <t>18,55%</t>
         </is>
       </c>
     </row>
@@ -868,27 +868,27 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-9,8; 4,24</t>
+          <t>-8,86; 8,25</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,34; 7,51</t>
+          <t>-4,7; 16,72</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,74; 4,78</t>
+          <t>-9,01; 0,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,57; 2,23</t>
+          <t>-3,84; 6,99</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 213,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -903,14 +903,14 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 281,25</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-1,47</t>
+          <t>-1,32</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,62</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-3,17</t>
+          <t>-3,03</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-1,48</t>
+          <t>-3,19</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-20,15%</t>
+          <t>-18,19%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>16,05%</t>
+          <t>2,29%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-62,93%</t>
+          <t>-46,66%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-44,77%</t>
+          <t>-69,83%</t>
         </is>
       </c>
     </row>
@@ -968,48 +968,156 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-6,47; 3,48</t>
+          <t>-10,6; 7,71</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,38; 4,16</t>
+          <t>-5,04; 7,66</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-7,58; -0,13</t>
+          <t>-16,06; 6,87</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,61; 1,3</t>
+          <t>-8,83; 1,69</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-63,51; 80,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-59,61; 200,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-93,5; 26,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-86,81; 120,21</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>-1,47</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0,62</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>-3,17</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>-1,48</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>-20,15%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>16,05%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-62,93%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-44,77%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-6,02; 3,34</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-2,94; 4,32</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-7,33; 0,3</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-4,6; 1,26</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-61,38; 68,83</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-56,19; 199,4</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-92,03; 33,29</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-90,68; 94,27</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>

--- a/data/trans_bre/IP16A03-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP16A03-Edad-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -668,22 +668,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 16,93</t>
+          <t>-1,98; 17,7</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-22,06; -1,22</t>
+          <t>-20,75; -1,27</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-17,06; 3,6</t>
+          <t>-16,81; 3,4</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-15,93; 11,72</t>
+          <t>-16,06; 11,88</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 23,68</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -768,27 +768,27 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-16,91; 1,14</t>
+          <t>-16,84; 1,49</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,2; 10,83</t>
+          <t>1,24; 11,23</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-10,43; 1,73</t>
+          <t>-11,92; 1,73</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,65; 3,24</t>
+          <t>-1,66; 3,29</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-92,4; 59,49</t>
+          <t>-100,0; 49,17</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -868,22 +868,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,86; 8,25</t>
+          <t>-10,35; 5,67</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,7; 16,72</t>
+          <t>-4,37; 16,9</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-9,01; 0,0</t>
+          <t>-9,16; 0,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,84; 6,99</t>
+          <t>-3,93; 6,77</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -968,27 +968,27 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-10,6; 7,71</t>
+          <t>-11,38; 8,2</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-5,04; 7,66</t>
+          <t>-4,98; 9,84</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-16,06; 6,87</t>
+          <t>-17,22; 6,75</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-8,83; 1,69</t>
+          <t>-9,53; 1,49</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 371,36</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,02; 3,34</t>
+          <t>-6,37; 3,06</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,94; 4,32</t>
+          <t>-2,99; 4,21</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,33; 0,3</t>
+          <t>-7,47; 0,04</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,6; 1,26</t>
+          <t>-4,34; 1,55</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-61,38; 68,83</t>
+          <t>-64,77; 64,64</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-56,19; 199,4</t>
+          <t>-60,37; 237,17</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-92,03; 33,29</t>
+          <t>-92,91; 39,07</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-90,68; 94,27</t>
+          <t>-88,76; 105,96</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP16A03-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP16A03-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-3,14</t>
+          <t>-3,85</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-38,96%</t>
+          <t>-44,55%</t>
         </is>
       </c>
     </row>
@@ -668,22 +668,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 17,7</t>
+          <t>-1,03; 18,55</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-20,75; -1,27</t>
+          <t>-20,94; -0,63</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-16,81; 3,4</t>
+          <t>-16,29; 3,36</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-16,06; 11,88</t>
+          <t>-18,49; 8,67</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 23,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,16</t>
+          <t>0,17</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>20,13%</t>
+          <t>22,59%</t>
         </is>
       </c>
     </row>
@@ -768,27 +768,27 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-16,84; 1,49</t>
+          <t>-16,81; 1,06</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,24; 11,23</t>
+          <t>1,22; 10,53</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-11,92; 1,73</t>
+          <t>-11,66; 1,71</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 3,29</t>
+          <t>-1,5; 3,21</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 49,17</t>
+          <t>-100,0; 66,32</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,35</t>
+          <t>0,66</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>18,55%</t>
+          <t>35,51%</t>
         </is>
       </c>
     </row>
@@ -868,22 +868,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-10,35; 5,67</t>
+          <t>-9,08; 8,11</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,37; 16,9</t>
+          <t>-4,84; 16,56</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-9,16; 0,0</t>
+          <t>-9,81; 0,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,93; 6,77</t>
+          <t>-3,8; 7,96</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-3,19</t>
+          <t>-3,54</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-69,83%</t>
+          <t>-78,21%</t>
         </is>
       </c>
     </row>
@@ -968,27 +968,27 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-11,38; 8,2</t>
+          <t>-10,88; 8,26</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,98; 9,84</t>
+          <t>-5,02; 7,69</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-17,22; 6,75</t>
+          <t>-15,96; 6,84</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-9,53; 1,49</t>
+          <t>-10,07; 0,37</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 371,36</t>
+          <t>-100,0; 437,35</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-1,48</t>
+          <t>-1,71</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-44,77%</t>
+          <t>-51,17%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,37; 3,06</t>
+          <t>-6,47; 3,48</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,99; 4,21</t>
+          <t>-3,38; 4,16</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,47; 0,04</t>
+          <t>-7,58; -0,13</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,34; 1,55</t>
+          <t>-4,95; 1,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-64,77; 64,64</t>
+          <t>-63,51; 80,24</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-60,37; 237,17</t>
+          <t>-59,61; 200,84</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-92,91; 39,07</t>
+          <t>-93,5; 26,01</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-88,76; 105,96</t>
+          <t>-90,6; 82,78</t>
         </is>
       </c>
     </row>
